--- a/CTROReporting/CTROReporting/bin/Release/Publish/Templates/Workload Template.xlsx
+++ b/CTROReporting/CTROReporting/bin/Release/Publish/Templates/Workload Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\Attitude Loose\Attitude Loose\Templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\panr2\Downloads\C#\CTROReporting\CTROReporting\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BB2F7532-6293-4A96-A951-0C95B52AD5CF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0CA2C52A-5585-4C30-9BCA-12D746299BC4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="825" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="825" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PDA Validation " sheetId="2" r:id="rId1"/>
@@ -21,6 +21,14 @@
     <sheet name="SDA QC" sheetId="7" r:id="rId6"/>
     <sheet name="SDA Summary" sheetId="8" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">'PDA Summary'!$A$3</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'PDA Summary'!$B$2</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'PDA Summary'!$B$3</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'SDA Summary'!$A$3</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'SDA Summary'!$B$2</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'SDA Summary'!$B$3</definedName>
+  </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2496,6 +2504,1874 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>PDA Summary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PDA Summary'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'PDA Summary'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F0DB-4678-8E73-4755A9FB55DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'PDA Summary'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'PDA Summary'!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F0DB-4678-8E73-4755A9FB55DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="427514280"/>
+        <c:axId val="427504440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="427514280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427504440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="427504440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427514280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>SDA Summary</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SDA Summary'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'SDA Summary'!$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3199-4655-B423-CECD812D0E1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SDA Summary'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'SDA Summary'!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3199-4655-B423-CECD812D0E1D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="427528384"/>
+        <c:axId val="427531664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="427528384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427531664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="427531664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="427528384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>492125</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>225425</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5823A672-8D22-42E9-A25D-7183BA768491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>187325</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D48C7603-3AE9-42F6-A676-1A5C5BB9597A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G3" totalsRowShown="0" headerRowDxfId="142" dataDxfId="141">
   <autoFilter ref="A1:G3" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
@@ -9790,8 +11666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -9817,8 +11693,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -14542,8 +16419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -14570,8 +16447,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>